--- a/testData/regroup_test_data.xlsx
+++ b/testData/regroup_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_edit_regroup" sheetId="5" r:id="rId1"/>
@@ -478,14 +478,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Debian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.175</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>检索名称/IP框里填写ip</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -510,7 +502,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Centos</t>
+    <t>linux资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux资源</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1791,13 +1791,13 @@
         <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>52</v>
@@ -1806,7 +1806,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>52</v>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>52</v>

--- a/testData/regroup_test_data.xlsx
+++ b/testData/regroup_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_edit_regroup" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>测试点说明</t>
   </si>
@@ -45,14 +45,6 @@
   </si>
   <si>
     <t>修改成功！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S01_T01_del_003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_F04_S01_T01_checkout_005</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -204,33 +196,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>test_F04_S01_T01_mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ResGrp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_002</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当前资源组不可上移!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -244,60 +209,6 @@
   </si>
   <si>
     <t>下移数据库资源组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>test_F04_S01_T01_up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ResGrp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_007</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>test_F04_S01_T01_down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ResGrp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_006</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -512,6 +423,54 @@
   <si>
     <t>linux资源</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test_F04_S01_T02_modResGrp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_002</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_delResGrp_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_checkoutResGrp_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_downResGrp_005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_upResGrp_006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_addRes_007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_query_008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_bulkDelRes_009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T02_delRes_010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -654,7 +613,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,9 +657,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1012,7 +968,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1034,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1048,140 +1004,140 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1196,16 +1152,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1216,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1230,42 +1187,42 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>38</v>
+      <c r="F2" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1236,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1287,7 +1244,7 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
     <col min="3" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1301,10 +1258,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1312,102 +1269,102 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1420,19 +1377,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
@@ -1446,13 +1403,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1460,186 +1417,186 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1667,7 +1624,7 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="66.875" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1681,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1692,22 +1649,22 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1678,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1741,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1752,63 +1709,69 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1827,7 +1790,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1836,7 +1799,7 @@
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -1844,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1858,19 +1821,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1884,12 +1847,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1897,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1914,22 +1882,22 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
